--- a/resourceLocation/Ayarlar.xlsx
+++ b/resourceLocation/Ayarlar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Kimden</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>ex_metine@koczer.com</t>
+  </si>
+  <si>
+    <t>liste.xlsx</t>
   </si>
   <si>
     <t>Örnek_1.xlsx;Örnek_2.xlsx;Örnek_3.xlsx</t>
@@ -423,7 +426,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +463,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -518,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -528,15 +531,23 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>